--- a/tests/data.gui/test/molar.extinction.coefficients/dsl.4/molar_extinction_coefficients.xlsx
+++ b/tests/data.gui/test/molar.extinction.coefficients/dsl.4/molar_extinction_coefficients.xlsx
@@ -2283,7 +2283,7 @@
         <v>0.556556818961528</v>
       </c>
       <c r="D4" t="n">
-        <v>857.142857142856</v>
+        <v>857.142857142859</v>
       </c>
       <c r="E4" t="n">
         <v>-0.329034425721079</v>
@@ -2433,13 +2433,13 @@
         <v>10390</v>
       </c>
       <c r="C13" t="n">
-        <v>0.904492597998454</v>
+        <v>0.904492597998455</v>
       </c>
       <c r="D13" t="n">
-        <v>1014.96598639455</v>
+        <v>1014.96598639456</v>
       </c>
       <c r="E13" t="n">
-        <v>0.909424596474642</v>
+        <v>0.909424596474638</v>
       </c>
     </row>
     <row r="14">
@@ -2470,10 +2470,10 @@
         <v>-0.142857142857144</v>
       </c>
       <c r="D15" t="n">
-        <v>1594.55782312926</v>
+        <v>1594.55782312925</v>
       </c>
       <c r="E15" t="n">
-        <v>0.981134082870863</v>
+        <v>0.981134082870864</v>
       </c>
     </row>
     <row r="16">
@@ -2524,7 +2524,7 @@
         <v>487.074829931971</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.041987897269737</v>
+        <v>-0.0419878972697365</v>
       </c>
     </row>
     <row r="19">
@@ -2555,10 +2555,10 @@
         <v>0.378606834911247</v>
       </c>
       <c r="D20" t="n">
-        <v>980.952380952382</v>
+        <v>980.952380952379</v>
       </c>
       <c r="E20" t="n">
-        <v>0.474781075962421</v>
+        <v>0.474781075962423</v>
       </c>
     </row>
     <row r="21">
@@ -2586,7 +2586,7 @@
         <v>6450</v>
       </c>
       <c r="C22" t="n">
-        <v>0.773745875009593</v>
+        <v>0.773745875009594</v>
       </c>
       <c r="D22" t="n">
         <v>1197.27891156462</v>
@@ -2606,10 +2606,10 @@
         <v>0.94215993734165</v>
       </c>
       <c r="D23" t="n">
-        <v>1325.17006802721</v>
+        <v>1325.17006802722</v>
       </c>
       <c r="E23" t="n">
-        <v>0.855819581538931</v>
+        <v>0.855819581538929</v>
       </c>
     </row>
     <row r="24">
@@ -2657,7 +2657,7 @@
         <v>0.914117856746514</v>
       </c>
       <c r="D26" t="n">
-        <v>881.632653061226</v>
+        <v>881.632653061227</v>
       </c>
       <c r="E26" t="n">
         <v>0.364854176964902</v>
@@ -2668,10 +2668,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>2330</v>
+        <v>2329.99999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.674295964771242</v>
+        <v>-0.674295964771241</v>
       </c>
       <c r="D27" t="n">
         <v>741.496598639452</v>
@@ -2688,7 +2688,7 @@
         <v>3630</v>
       </c>
       <c r="C28" t="n">
-        <v>0.578286074756654</v>
+        <v>0.578286074756655</v>
       </c>
       <c r="D28" t="n">
         <v>1307.48299319728</v>
@@ -2813,7 +2813,7 @@
         <v>2027.21088435375</v>
       </c>
       <c r="E35" t="n">
-        <v>0.78483957590629</v>
+        <v>0.784839575906291</v>
       </c>
     </row>
     <row r="36">
@@ -3014,7 +3014,7 @@
         <v>0.999784884554711</v>
       </c>
       <c r="D47" t="n">
-        <v>9523.80952380952</v>
+        <v>9523.80952380953</v>
       </c>
       <c r="E47" t="n">
         <v>0.999962653991064</v>
@@ -3252,7 +3252,7 @@
         <v>0.998803741895351</v>
       </c>
       <c r="D61" t="n">
-        <v>5499.31972789115</v>
+        <v>5499.31972789116</v>
       </c>
       <c r="E61" t="n">
         <v>0.999592833278261</v>
@@ -3306,7 +3306,7 @@
         <v>5375.51020408163</v>
       </c>
       <c r="E64" t="n">
-        <v>0.999606711584333</v>
+        <v>0.999606711584332</v>
       </c>
     </row>
     <row r="65">
@@ -3762,7 +3762,7 @@
         <v>0.998645342133141</v>
       </c>
       <c r="D91" t="n">
-        <v>7872.10884353742</v>
+        <v>7872.10884353741</v>
       </c>
       <c r="E91" t="n">
         <v>0.999788367183832</v>
@@ -3779,7 +3779,7 @@
         <v>0.998806270808658</v>
       </c>
       <c r="D92" t="n">
-        <v>7946.9387755102</v>
+        <v>7946.93877551021</v>
       </c>
       <c r="E92" t="n">
         <v>0.999839365480459</v>
@@ -4371,7 +4371,7 @@
         <v>3520</v>
       </c>
       <c r="C127" t="n">
-        <v>0.999225506647735</v>
+        <v>0.999225506647734</v>
       </c>
       <c r="D127" t="n">
         <v>4840.81632653061</v>
@@ -5547,7 +5547,7 @@
         <v>0.999157556651024</v>
       </c>
       <c r="D196" t="n">
-        <v>3318.36734693878</v>
+        <v>3318.36734693877</v>
       </c>
       <c r="E196" t="n">
         <v>0.999714110680008</v>
@@ -6193,7 +6193,7 @@
         <v>0.999325296559701</v>
       </c>
       <c r="D234" t="n">
-        <v>5016.32653061225</v>
+        <v>5016.32653061224</v>
       </c>
       <c r="E234" t="n">
         <v>0.999791921876189</v>
@@ -7513,7 +7513,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="n">
-        <v>970</v>
+        <v>969.999999999999</v>
       </c>
       <c r="C312" t="n">
         <v>0.999362515937102</v>
@@ -7632,10 +7632,10 @@
         <v>322</v>
       </c>
       <c r="B319" t="n">
-        <v>769.999999999999</v>
+        <v>770</v>
       </c>
       <c r="C319" t="n">
-        <v>0.998988536749832</v>
+        <v>0.998988536749831</v>
       </c>
       <c r="D319" t="n">
         <v>703.401360544218</v>
@@ -7666,7 +7666,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="n">
-        <v>719.999999999999</v>
+        <v>720</v>
       </c>
       <c r="C321" t="n">
         <v>0.999485728979172</v>
@@ -7709,7 +7709,7 @@
         <v>770.068027210884</v>
       </c>
       <c r="E323" t="n">
-        <v>0.999700393233881</v>
+        <v>0.99970039323388</v>
       </c>
     </row>
     <row r="324">
@@ -7740,7 +7740,7 @@
         <v>0.999306518723994</v>
       </c>
       <c r="D325" t="n">
-        <v>805.442176870748</v>
+        <v>805.442176870749</v>
       </c>
       <c r="E325" t="n">
         <v>0.999845934379458</v>
@@ -7768,7 +7768,7 @@
         <v>330</v>
       </c>
       <c r="B327" t="n">
-        <v>569.999999999999</v>
+        <v>570</v>
       </c>
       <c r="C327" t="n">
         <v>0.999794829708658</v>
@@ -8499,10 +8499,10 @@
         <v>373</v>
       </c>
       <c r="B370" t="n">
-        <v>80</v>
+        <v>79.9999999999997</v>
       </c>
       <c r="C370" t="n">
-        <v>0.959183673469387</v>
+        <v>0.959183673469389</v>
       </c>
       <c r="D370" t="n">
         <v>1642.1768707483</v>
@@ -8550,10 +8550,10 @@
         <v>376</v>
       </c>
       <c r="B373" t="n">
-        <v>69.9999999999997</v>
+        <v>69.9999999999998</v>
       </c>
       <c r="C373" t="n">
-        <v>0.986486486486487</v>
+        <v>0.986486486486486</v>
       </c>
       <c r="D373" t="n">
         <v>1696.59863945578</v>
@@ -8686,10 +8686,10 @@
         <v>384</v>
       </c>
       <c r="B381" t="n">
-        <v>49.9999999999998</v>
+        <v>49.9999999999996</v>
       </c>
       <c r="C381" t="n">
-        <v>0.785714285714288</v>
+        <v>0.78571428571429</v>
       </c>
       <c r="D381" t="n">
         <v>1805.44217687075</v>
@@ -8703,10 +8703,10 @@
         <v>385</v>
       </c>
       <c r="B382" t="n">
-        <v>49.9999999999998</v>
+        <v>49.9999999999996</v>
       </c>
       <c r="C382" t="n">
-        <v>0.785714285714288</v>
+        <v>0.78571428571429</v>
       </c>
       <c r="D382" t="n">
         <v>1814.96598639456</v>
@@ -8720,10 +8720,10 @@
         <v>386</v>
       </c>
       <c r="B383" t="n">
-        <v>49.9999999999998</v>
+        <v>49.9999999999996</v>
       </c>
       <c r="C383" t="n">
-        <v>0.785714285714288</v>
+        <v>0.78571428571429</v>
       </c>
       <c r="D383" t="n">
         <v>1827.21088435374</v>
@@ -8737,10 +8737,10 @@
         <v>387</v>
       </c>
       <c r="B384" t="n">
-        <v>40</v>
+        <v>39.9999999999997</v>
       </c>
       <c r="C384" t="n">
-        <v>0.846153846153846</v>
+        <v>0.84615384615385</v>
       </c>
       <c r="D384" t="n">
         <v>1836.73469387755</v>
@@ -8754,10 +8754,10 @@
         <v>388</v>
       </c>
       <c r="B385" t="n">
-        <v>40</v>
+        <v>39.9999999999997</v>
       </c>
       <c r="C385" t="n">
-        <v>0.846153846153846</v>
+        <v>0.84615384615385</v>
       </c>
       <c r="D385" t="n">
         <v>1850.34013605442</v>
@@ -9043,10 +9043,10 @@
         <v>405</v>
       </c>
       <c r="B402" t="n">
-        <v>9.9999999999999</v>
+        <v>9.99999999999976</v>
       </c>
       <c r="C402" t="n">
-        <v>-0.499999999999997</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D402" t="n">
         <v>1967.34693877551</v>
@@ -9060,10 +9060,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="n">
-        <v>9.9999999999999</v>
+        <v>9.99999999999976</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.499999999999997</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D403" t="n">
         <v>1967.34693877551</v>
@@ -9162,10 +9162,10 @@
         <v>412</v>
       </c>
       <c r="B409" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C409" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D409" t="n">
         <v>1971.42857142857</v>
@@ -9179,10 +9179,10 @@
         <v>413</v>
       </c>
       <c r="B410" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C410" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D410" t="n">
         <v>1971.42857142857</v>
@@ -9196,10 +9196,10 @@
         <v>414</v>
       </c>
       <c r="B411" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C411" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D411" t="n">
         <v>1972.78911564626</v>
@@ -9213,10 +9213,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C412" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D412" t="n">
         <v>1967.34693877551</v>
@@ -9230,10 +9230,10 @@
         <v>416</v>
       </c>
       <c r="B413" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C413" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D413" t="n">
         <v>1961.90476190476</v>
@@ -9247,10 +9247,10 @@
         <v>417</v>
       </c>
       <c r="B414" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C414" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D414" t="n">
         <v>1957.8231292517</v>
@@ -9264,10 +9264,10 @@
         <v>418</v>
       </c>
       <c r="B415" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C415" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D415" t="n">
         <v>1953.74149659864</v>
@@ -9281,10 +9281,10 @@
         <v>419</v>
       </c>
       <c r="B416" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C416" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D416" t="n">
         <v>1949.65986394558</v>
@@ -9298,10 +9298,10 @@
         <v>420</v>
       </c>
       <c r="B417" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C417" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D417" t="n">
         <v>1944.21768707483</v>
@@ -9315,10 +9315,10 @@
         <v>421</v>
       </c>
       <c r="B418" t="n">
-        <v>9.99999999999983</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.499999999999996</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D418" t="n">
         <v>1940.13605442177</v>
@@ -10078,7 +10078,7 @@
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475" t="n">
-        <v>882.993197278911</v>
+        <v>882.993197278912</v>
       </c>
       <c r="E475" t="n">
         <v>0.999950144225633</v>
@@ -10260,7 +10260,7 @@
       <c r="B489"/>
       <c r="C489"/>
       <c r="D489" t="n">
-        <v>590.47619047619</v>
+        <v>590.476190476191</v>
       </c>
       <c r="E489" t="n">
         <v>0.999968146103207</v>
@@ -10416,7 +10416,7 @@
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501" t="n">
-        <v>390.476190476191</v>
+        <v>390.47619047619</v>
       </c>
       <c r="E501" t="n">
         <v>0.999890743550835</v>
@@ -11173,7 +11173,7 @@
         <v>14.9659863945578</v>
       </c>
       <c r="E559" t="n">
-        <v>0.844444444444444</v>
+        <v>0.844444444444445</v>
       </c>
     </row>
     <row r="560">
@@ -11186,7 +11186,7 @@
         <v>14.9659863945578</v>
       </c>
       <c r="E560" t="n">
-        <v>0.844444444444444</v>
+        <v>0.844444444444445</v>
       </c>
     </row>
     <row r="561">
@@ -11199,7 +11199,7 @@
         <v>14.9659863945578</v>
       </c>
       <c r="E561" t="n">
-        <v>0.844444444444444</v>
+        <v>0.844444444444445</v>
       </c>
     </row>
     <row r="562">
@@ -11274,10 +11274,10 @@
       <c r="B567"/>
       <c r="C567"/>
       <c r="D567" t="n">
-        <v>9.52380952380952</v>
+        <v>9.52380952380953</v>
       </c>
       <c r="E567" t="n">
-        <v>0.836363636363636</v>
+        <v>0.836363636363637</v>
       </c>
     </row>
     <row r="568">
@@ -11287,7 +11287,7 @@
       <c r="B568"/>
       <c r="C568"/>
       <c r="D568" t="n">
-        <v>5.4421768707483</v>
+        <v>5.44217687074831</v>
       </c>
       <c r="E568" t="n">
         <v>0.7</v>
@@ -11300,7 +11300,7 @@
       <c r="B569"/>
       <c r="C569"/>
       <c r="D569" t="n">
-        <v>5.4421768707483</v>
+        <v>5.44217687074831</v>
       </c>
       <c r="E569" t="n">
         <v>0.7</v>
@@ -11352,7 +11352,7 @@
       <c r="B573"/>
       <c r="C573"/>
       <c r="D573" t="n">
-        <v>1.36054421768708</v>
+        <v>1.36054421768707</v>
       </c>
       <c r="E573" t="n">
         <v>-0.4</v>
@@ -11365,7 +11365,7 @@
       <c r="B574"/>
       <c r="C574"/>
       <c r="D574" t="n">
-        <v>1.36054421768708</v>
+        <v>1.36054421768707</v>
       </c>
       <c r="E574" t="n">
         <v>-0.4</v>
@@ -11378,7 +11378,7 @@
       <c r="B575"/>
       <c r="C575"/>
       <c r="D575" t="n">
-        <v>1.36054421768708</v>
+        <v>1.36054421768707</v>
       </c>
       <c r="E575" t="n">
         <v>-0.4</v>
@@ -11391,7 +11391,7 @@
       <c r="B576"/>
       <c r="C576"/>
       <c r="D576" t="n">
-        <v>1.36054421768708</v>
+        <v>1.36054421768707</v>
       </c>
       <c r="E576" t="n">
         <v>-0.4</v>
@@ -11404,7 +11404,7 @@
       <c r="B577"/>
       <c r="C577"/>
       <c r="D577" t="n">
-        <v>1.36054421768708</v>
+        <v>1.36054421768707</v>
       </c>
       <c r="E577" t="n">
         <v>-0.4</v>
